--- a/CarScraper/autotrader.xlsx
+++ b/CarScraper/autotrader.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -37,19 +37,124 @@
     <t>Used 2023 Toyota Corolla SE</t>
   </si>
   <si>
+    <t>Used 2022 Toyota Corolla SE</t>
+  </si>
+  <si>
+    <t>Used 2023 Toyota Corolla LE</t>
+  </si>
+  <si>
     <t>Used 2022 Toyota Corolla LE</t>
   </si>
   <si>
-    <t>Used 2022 Toyota Corolla SE</t>
-  </si>
-  <si>
-    <t>https://www.autotrader.com/cars-for-sale/vehicle/737851905?allListingType=all-cars&amp;city=Robinson&amp;endYear=2024&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;zip=15949&amp;clickType=spotlight</t>
-  </si>
-  <si>
-    <t>https://www.autotrader.com/cars-for-sale/vehicle/738144959?allListingType=all-cars&amp;city=Robinson&amp;endYear=2024&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;zip=15949&amp;clickType=spotlight</t>
-  </si>
-  <si>
-    <t>https://www.autotrader.com/cars-for-sale/vehicle/714479405?allListingType=all-cars&amp;city=Robinson&amp;endYear=2024&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;zip=15949&amp;clickType=spotlight</t>
+    <t>Used 2024 Toyota Corolla LE</t>
+  </si>
+  <si>
+    <t>Used 2024 Toyota Corolla SE</t>
+  </si>
+  <si>
+    <t>Used 2016 Toyota Corolla LE</t>
+  </si>
+  <si>
+    <t>Certified 2024 Toyota Corolla SE</t>
+  </si>
+  <si>
+    <t>Used 2024 Toyota Corolla XLE</t>
+  </si>
+  <si>
+    <t>Used 2017 Toyota Corolla L</t>
+  </si>
+  <si>
+    <t>Used 2021 Toyota Corolla SE</t>
+  </si>
+  <si>
+    <t>Used 2020 Toyota Corolla LE</t>
+  </si>
+  <si>
+    <t>Used 2020 Toyota Corolla SE</t>
+  </si>
+  <si>
+    <t>Used 2021 Toyota Corolla LE</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/737851905?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/714479405?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/736242019?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/737003763?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=25&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/740535755?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=25&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/736835583?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=25&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/734185732?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=50&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/739315677?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=50&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/739070234?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=50&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/731978844?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=75&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/740383231?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=75&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/740584001?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=75&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/737851905?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=100&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/740698006?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=100&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/740535755?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=100&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/740170861?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=125&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/738144959?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=125&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/738535767?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=125&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/733973312?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=150&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/740170861?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=150&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/738610621?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=150&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/738852857?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=175&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/730887672?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=175&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/737851905?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=175&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/737948684?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=200&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/739168813?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=200&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
+  </si>
+  <si>
+    <t>https://www.autotrader.com/cars-for-sale/vehicle/714479405?allListingType=all-cars&amp;city=Coraopolis&amp;endYear=2024&amp;firstRecord=200&amp;makeCode=TOYOTA&amp;maxPrice=35000&amp;mileage=100000&amp;minPrice=0&amp;modelCode=COROL&amp;searchRadius=100&amp;startYear=2000&amp;state=PA&amp;clickType=spotlight</t>
   </si>
 </sst>
 </file>
@@ -420,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,7 +556,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>19999</v>
@@ -460,7 +565,7 @@
         <v>31885</v>
       </c>
       <c r="E2">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -471,16 +576,16 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>17990</v>
+        <v>21000</v>
       </c>
       <c r="D3">
-        <v>53711</v>
+        <v>23574</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -491,18 +596,498 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>18800</v>
+      </c>
+      <c r="D4">
+        <v>49902</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>20973</v>
+      </c>
+      <c r="D5">
+        <v>23631</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>20997</v>
+      </c>
+      <c r="D6">
+        <v>63981</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>19999</v>
+      </c>
+      <c r="D7">
+        <v>46327</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>20757</v>
+      </c>
+      <c r="D8">
+        <v>27489</v>
+      </c>
+      <c r="E8">
+        <v>37</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>25078</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>20991</v>
+      </c>
+      <c r="D10">
+        <v>30465</v>
+      </c>
+      <c r="E10">
+        <v>96</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>20900</v>
+      </c>
+      <c r="D11">
+        <v>65236</v>
+      </c>
+      <c r="E11">
+        <v>70</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>21583</v>
+      </c>
+      <c r="D12">
+        <v>3150</v>
+      </c>
+      <c r="E12">
+        <v>89</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>15998</v>
+      </c>
+      <c r="D13">
+        <v>72401</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>19999</v>
+      </c>
+      <c r="D14">
+        <v>31885</v>
+      </c>
+      <c r="E14">
+        <v>71</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>25798</v>
+      </c>
+      <c r="D15">
+        <v>5208</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>20997</v>
+      </c>
+      <c r="D16">
+        <v>63981</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>26873</v>
+      </c>
+      <c r="D17">
+        <v>11758</v>
+      </c>
+      <c r="E17">
+        <v>75</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>17990</v>
+      </c>
+      <c r="D18">
+        <v>53711</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>12414</v>
+      </c>
+      <c r="D19">
+        <v>93585</v>
+      </c>
+      <c r="E19">
+        <v>81</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>22299</v>
+      </c>
+      <c r="D20">
+        <v>15246</v>
+      </c>
+      <c r="E20">
+        <v>93</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>26873</v>
+      </c>
+      <c r="D21">
+        <v>11758</v>
+      </c>
+      <c r="E21">
+        <v>75</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>17551</v>
+      </c>
+      <c r="D22">
+        <v>81510</v>
+      </c>
+      <c r="E22">
+        <v>68</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23">
+        <v>17989</v>
+      </c>
+      <c r="D23">
+        <v>20281</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <v>17264</v>
+      </c>
+      <c r="D24">
+        <v>59635</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25">
+        <v>19999</v>
+      </c>
+      <c r="D25">
+        <v>31885</v>
+      </c>
+      <c r="E25">
+        <v>71</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>17998</v>
+      </c>
+      <c r="D26">
+        <v>38188</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>20998</v>
+      </c>
+      <c r="D27">
+        <v>56908</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28">
         <v>21000</v>
       </c>
-      <c r="D4">
+      <c r="D28">
         <v>23574</v>
       </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
+      <c r="E28">
+        <v>44</v>
+      </c>
+      <c r="F28">
         <v>0</v>
       </c>
     </row>
@@ -559,6 +1144,30 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
